--- a/stock_historical_data/1wk/PRAJIND.NS.xlsx
+++ b/stock_historical_data/1wk/PRAJIND.NS.xlsx
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PRAJIND.NS.xlsx
+++ b/stock_historical_data/1wk/PRAJIND.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PRAJIND.NS.xlsx
+++ b/stock_historical_data/1wk/PRAJIND.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PRAJIND.NS.xlsx
+++ b/stock_historical_data/1wk/PRAJIND.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -64704,6 +64704,114 @@
       <c r="R1147" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>700.1500244140625</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>716</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>655</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>688.5999755859375</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>688.5999755859375</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>6752476</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>685.8499755859375</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>742</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>667.9000244140625</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>728.6500244140625</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>728.6500244140625</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>6727896</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PRAJIND.NS.xlsx
+++ b/stock_historical_data/1wk/PRAJIND.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3656,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
         <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -4048,13 +4048,13 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4440,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5280,13 +5280,13 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q86" t="n">
         <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -7750,7 +7750,7 @@
         <v>2</v>
       </c>
       <c r="R130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -8702,7 +8702,7 @@
         <v>2</v>
       </c>
       <c r="R147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -10102,7 +10102,7 @@
         <v>2</v>
       </c>
       <c r="R172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="R180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -11278,7 +11278,7 @@
         <v>2</v>
       </c>
       <c r="R193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="R198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -12118,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="R214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -12622,7 +12622,7 @@
         <v>2</v>
       </c>
       <c r="R217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="R229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -13462,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="R232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -14470,7 +14470,7 @@
         <v>2</v>
       </c>
       <c r="R250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="R276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -16206,7 +16206,7 @@
         <v>2</v>
       </c>
       <c r="R281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -16654,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="R289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -16822,7 +16822,7 @@
         <v>2</v>
       </c>
       <c r="R292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -18110,7 +18110,7 @@
         <v>2</v>
       </c>
       <c r="R315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -18614,7 +18614,7 @@
         <v>2</v>
       </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -19398,7 +19398,7 @@
         <v>1</v>
       </c>
       <c r="R338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -19958,7 +19958,7 @@
         <v>2</v>
       </c>
       <c r="R348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -21134,7 +21134,7 @@
         <v>2</v>
       </c>
       <c r="R369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -21470,7 +21470,7 @@
         <v>1</v>
       </c>
       <c r="R375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -21918,7 +21918,7 @@
         <v>2</v>
       </c>
       <c r="R383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="R400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="R407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -23766,7 +23766,7 @@
         <v>2</v>
       </c>
       <c r="R416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -23990,7 +23990,7 @@
         <v>1</v>
       </c>
       <c r="R420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -24270,7 +24270,7 @@
         <v>2</v>
       </c>
       <c r="R425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -24774,7 +24774,7 @@
         <v>1</v>
       </c>
       <c r="R434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -25054,7 +25054,7 @@
         <v>2</v>
       </c>
       <c r="R439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -25446,7 +25446,7 @@
         <v>1</v>
       </c>
       <c r="R446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -25838,7 +25838,7 @@
         <v>2</v>
       </c>
       <c r="R453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -26678,7 +26678,7 @@
         <v>2</v>
       </c>
       <c r="R468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -26902,7 +26902,7 @@
         <v>1</v>
       </c>
       <c r="R472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -27350,7 +27350,7 @@
         <v>2</v>
       </c>
       <c r="R480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -27630,7 +27630,7 @@
         <v>1</v>
       </c>
       <c r="R485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -28190,7 +28190,7 @@
         <v>2</v>
       </c>
       <c r="R495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -28358,7 +28358,7 @@
         <v>1</v>
       </c>
       <c r="R498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -29086,7 +29086,7 @@
         <v>2</v>
       </c>
       <c r="R511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -29814,7 +29814,7 @@
         <v>1</v>
       </c>
       <c r="R524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -30150,7 +30150,7 @@
         <v>2</v>
       </c>
       <c r="R530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -30710,7 +30710,7 @@
         <v>1</v>
       </c>
       <c r="R540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -30878,7 +30878,7 @@
         <v>2</v>
       </c>
       <c r="R543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -31102,7 +31102,7 @@
         <v>1</v>
       </c>
       <c r="R547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -31382,7 +31382,7 @@
         <v>2</v>
       </c>
       <c r="R552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -32222,7 +32222,7 @@
         <v>1</v>
       </c>
       <c r="R567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -33118,7 +33118,7 @@
         <v>2</v>
       </c>
       <c r="R583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -33286,7 +33286,7 @@
         <v>1</v>
       </c>
       <c r="R586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -33790,7 +33790,7 @@
         <v>2</v>
       </c>
       <c r="R595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -34630,7 +34630,7 @@
         <v>2</v>
       </c>
       <c r="R610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -34910,7 +34910,7 @@
         <v>1</v>
       </c>
       <c r="R615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -35302,7 +35302,7 @@
         <v>2</v>
       </c>
       <c r="R622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -35526,7 +35526,7 @@
         <v>1</v>
       </c>
       <c r="R626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -35750,7 +35750,7 @@
         <v>2</v>
       </c>
       <c r="R630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631">
@@ -36310,7 +36310,7 @@
         <v>1</v>
       </c>
       <c r="R640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -36590,7 +36590,7 @@
         <v>2</v>
       </c>
       <c r="R645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -37598,7 +37598,7 @@
         <v>1</v>
       </c>
       <c r="R663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -38214,7 +38214,7 @@
         <v>2</v>
       </c>
       <c r="R674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -38606,7 +38606,7 @@
         <v>1</v>
       </c>
       <c r="R681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -39054,7 +39054,7 @@
         <v>2</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690">
@@ -39334,7 +39334,7 @@
         <v>1</v>
       </c>
       <c r="R694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -39782,7 +39782,7 @@
         <v>2</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -39838,7 +39838,7 @@
         <v>1</v>
       </c>
       <c r="R703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -40790,7 +40790,7 @@
         <v>1</v>
       </c>
       <c r="R720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -41294,7 +41294,7 @@
         <v>2</v>
       </c>
       <c r="R729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730">
@@ -41742,7 +41742,7 @@
         <v>1</v>
       </c>
       <c r="R737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -41854,7 +41854,7 @@
         <v>2</v>
       </c>
       <c r="R739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -43366,7 +43366,7 @@
         <v>2</v>
       </c>
       <c r="R766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767">
@@ -44206,7 +44206,7 @@
         <v>2</v>
       </c>
       <c r="R781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782">
@@ -45382,7 +45382,7 @@
         <v>2</v>
       </c>
       <c r="R802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803">
@@ -45494,7 +45494,7 @@
         <v>1</v>
       </c>
       <c r="R804" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -45886,7 +45886,7 @@
         <v>2</v>
       </c>
       <c r="R811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812">
@@ -46278,7 +46278,7 @@
         <v>2</v>
       </c>
       <c r="R818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -46782,7 +46782,7 @@
         <v>1</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -47286,7 +47286,7 @@
         <v>2</v>
       </c>
       <c r="R836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -47678,7 +47678,7 @@
         <v>1</v>
       </c>
       <c r="R843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -48518,7 +48518,7 @@
         <v>2</v>
       </c>
       <c r="R858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -48966,7 +48966,7 @@
         <v>1</v>
       </c>
       <c r="R866" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -49246,7 +49246,7 @@
         <v>2</v>
       </c>
       <c r="R871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872">
@@ -49638,7 +49638,7 @@
         <v>2</v>
       </c>
       <c r="R878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879">
@@ -50198,7 +50198,7 @@
         <v>1</v>
       </c>
       <c r="R888" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -50366,7 +50366,7 @@
         <v>2</v>
       </c>
       <c r="R891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892">
@@ -50982,7 +50982,7 @@
         <v>1</v>
       </c>
       <c r="R902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -51262,7 +51262,7 @@
         <v>2</v>
       </c>
       <c r="R907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -52718,7 +52718,7 @@
         <v>1</v>
       </c>
       <c r="R933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -52942,7 +52942,7 @@
         <v>2</v>
       </c>
       <c r="R937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -53166,7 +53166,7 @@
         <v>1</v>
       </c>
       <c r="R941" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942">
@@ -53782,7 +53782,7 @@
         <v>1</v>
       </c>
       <c r="R952" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953">
@@ -56694,7 +56694,7 @@
         <v>2</v>
       </c>
       <c r="R1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005">
@@ -56862,7 +56862,7 @@
         <v>1</v>
       </c>
       <c r="R1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -57478,7 +57478,7 @@
         <v>2</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -57814,7 +57814,7 @@
         <v>1</v>
       </c>
       <c r="R1024" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
@@ -58038,7 +58038,7 @@
         <v>2</v>
       </c>
       <c r="R1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -58318,7 +58318,7 @@
         <v>1</v>
       </c>
       <c r="R1033" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034">
@@ -59046,7 +59046,7 @@
         <v>1</v>
       </c>
       <c r="R1046" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -59774,7 +59774,7 @@
         <v>1</v>
       </c>
       <c r="R1059" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -60166,7 +60166,7 @@
         <v>2</v>
       </c>
       <c r="R1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -61006,7 +61006,7 @@
         <v>1</v>
       </c>
       <c r="R1081" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082">
@@ -61174,7 +61174,7 @@
         <v>2</v>
       </c>
       <c r="R1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -62294,7 +62294,7 @@
         <v>1</v>
       </c>
       <c r="R1104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105">
@@ -63078,7 +63078,7 @@
         <v>2</v>
       </c>
       <c r="R1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -63190,7 +63190,7 @@
         <v>1</v>
       </c>
       <c r="R1120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -63470,7 +63470,7 @@
         <v>2</v>
       </c>
       <c r="R1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -63526,7 +63526,7 @@
         <v>1</v>
       </c>
       <c r="R1126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -64310,7 +64310,7 @@
         <v>1</v>
       </c>
       <c r="R1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141">
@@ -64637,7 +64637,7 @@
         <v>23</v>
       </c>
       <c r="O1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1146" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64811,7 +64813,1829 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>731.381044940024</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>751.6104414822245</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>720.2251410802779</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>727.0178833007812</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>5572023</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>730.5381689907922</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>749.6271597876604</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>705.9456111340428</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>717.6964721679688</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>5813957</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>728.4060782448182</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>732.7693000553018</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>676.5931067373996</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>683.137939453125</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>3798446</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>685.7999877929688</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>724.7999877929688</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>658</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>699.8499755859375</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>3072095</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>709.3499755859375</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>731.7999877929688</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>680</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>691.1500244140625</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>3448519</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>674</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>694.9500122070312</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>672.0499877929688</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>2458965</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>742.2000122070312</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>662.5999755859375</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>711.8499755859375</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>8126901</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>714.7000122070312</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>812.9500122070312</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>712.5999755859375</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>758.0499877929688</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>16826573</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>763</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>804.25</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>725</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>766.9000244140625</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>15188283</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>768</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>773.9000244140625</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>732.0499877929688</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>735.0999755859375</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>4440045</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>735</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>736.4000244140625</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>713</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>727.7000122070312</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>2120256</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>733.9000244140625</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>767.7000122070312</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>712.2999877929688</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>749</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>3924909</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>763.7000122070312</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>825</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>742.9500122070312</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>801.5499877929688</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>16510421</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>801.5499877929688</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>826.7000122070312</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>735.2000122070312</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>761.25</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>6799952</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>761.25</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>794</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>710.75</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>772.4000244140625</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>4285934</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>774.2000122070312</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>824</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>763</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>797.5499877929688</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>6024664</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>800.0499877929688</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>813.75</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>708.75</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>710.8499755859375</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>2785678</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>687.9500122070312</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>754.7999877929688</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>677.5499877929688</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>749.0499877929688</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>3440122</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>749.0499877929688</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>750.5999755859375</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>714.4500122070312</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>2053707</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>712.2999877929688</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>727.9500122070312</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>665.5499877929688</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>689.7000122070312</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>1879392</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>689.7000122070312</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>804</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>670.2999877929688</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>779.2000122070312</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>10453430</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>795</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>850</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>767.0999755859375</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>823.75</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>16045265</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>828.7999877929688</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>855</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>788.4000244140625</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>792.5499877929688</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>5066377</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>792.9000244140625</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>828.0999755859375</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>788.25</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>799.4000244140625</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>3239906</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>800.0999755859375</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>840.9000244140625</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>779</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>810.1500244140625</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>4967007</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>811.9000244140625</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>839</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>796.5</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>813.5999755859375</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>2608940</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>816.9000244140625</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>875</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>805.5499877929688</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>836.3499755859375</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>7261040</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>844</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>854.5</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>731.5</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>738.7000122070312</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>4085989</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>729.5999755859375</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>804</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>690.5999755859375</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>796.6500244140625</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>6018022</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>798.5499877929688</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>807</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>712.3499755859375</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>721.2999877929688</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>3249215</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>711</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>713.2999877929688</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>594.5999755859375</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>627.1500244140625</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>10922539</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>620</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>639.9000244140625</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>572.4500122070312</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>613.9000244140625</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>5235205</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>612.5</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>531.4000244140625</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>534.1500244140625</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>3957864</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>529.9500122070312</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>569</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>512.2999877929688</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>543.8499755859375</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>3882065</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>537.3499755859375</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>552.8499755859375</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>481.1000061035156</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>488.4500122070312</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>4382103</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PRAJIND.NS.xlsx
+++ b/stock_historical_data/1wk/PRAJIND.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1184"/>
+  <dimension ref="A1:R1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="R108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -7750,7 +7750,7 @@
         <v>2</v>
       </c>
       <c r="R130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="R142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -8702,7 +8702,7 @@
         <v>2</v>
       </c>
       <c r="R147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -10102,7 +10102,7 @@
         <v>2</v>
       </c>
       <c r="R172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="R180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -11278,7 +11278,7 @@
         <v>2</v>
       </c>
       <c r="R193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="R198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -12118,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="R214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -12622,7 +12622,7 @@
         <v>2</v>
       </c>
       <c r="R217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="R229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -13462,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="R232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -14470,7 +14470,7 @@
         <v>2</v>
       </c>
       <c r="R250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="R276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -16206,7 +16206,7 @@
         <v>2</v>
       </c>
       <c r="R281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -16654,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="R289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -16822,7 +16822,7 @@
         <v>2</v>
       </c>
       <c r="R292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -18110,7 +18110,7 @@
         <v>2</v>
       </c>
       <c r="R315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -18614,7 +18614,7 @@
         <v>2</v>
       </c>
       <c r="R324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -19398,7 +19398,7 @@
         <v>1</v>
       </c>
       <c r="R338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -19958,7 +19958,7 @@
         <v>2</v>
       </c>
       <c r="R348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -21134,7 +21134,7 @@
         <v>2</v>
       </c>
       <c r="R369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -21470,7 +21470,7 @@
         <v>1</v>
       </c>
       <c r="R375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -21918,7 +21918,7 @@
         <v>2</v>
       </c>
       <c r="R383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="R400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="R407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -23766,7 +23766,7 @@
         <v>2</v>
       </c>
       <c r="R416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -23990,7 +23990,7 @@
         <v>1</v>
       </c>
       <c r="R420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -24270,7 +24270,7 @@
         <v>2</v>
       </c>
       <c r="R425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -24774,7 +24774,7 @@
         <v>1</v>
       </c>
       <c r="R434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -25054,7 +25054,7 @@
         <v>2</v>
       </c>
       <c r="R439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -25446,7 +25446,7 @@
         <v>1</v>
       </c>
       <c r="R446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -25838,7 +25838,7 @@
         <v>2</v>
       </c>
       <c r="R453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -26678,7 +26678,7 @@
         <v>2</v>
       </c>
       <c r="R468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -26902,7 +26902,7 @@
         <v>1</v>
       </c>
       <c r="R472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -27350,7 +27350,7 @@
         <v>2</v>
       </c>
       <c r="R480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -27630,7 +27630,7 @@
         <v>1</v>
       </c>
       <c r="R485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -28190,7 +28190,7 @@
         <v>2</v>
       </c>
       <c r="R495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -28358,7 +28358,7 @@
         <v>1</v>
       </c>
       <c r="R498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -29086,7 +29086,7 @@
         <v>2</v>
       </c>
       <c r="R511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -29814,7 +29814,7 @@
         <v>1</v>
       </c>
       <c r="R524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -30150,7 +30150,7 @@
         <v>2</v>
       </c>
       <c r="R530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -30710,7 +30710,7 @@
         <v>1</v>
       </c>
       <c r="R540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -30878,7 +30878,7 @@
         <v>2</v>
       </c>
       <c r="R543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -31102,7 +31102,7 @@
         <v>1</v>
       </c>
       <c r="R547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -31382,7 +31382,7 @@
         <v>2</v>
       </c>
       <c r="R552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -32222,7 +32222,7 @@
         <v>1</v>
       </c>
       <c r="R567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -33118,7 +33118,7 @@
         <v>2</v>
       </c>
       <c r="R583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -33286,7 +33286,7 @@
         <v>1</v>
       </c>
       <c r="R586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -33790,7 +33790,7 @@
         <v>2</v>
       </c>
       <c r="R595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -34630,7 +34630,7 @@
         <v>2</v>
       </c>
       <c r="R610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -34910,7 +34910,7 @@
         <v>1</v>
       </c>
       <c r="R615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -35302,7 +35302,7 @@
         <v>2</v>
       </c>
       <c r="R622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -35526,7 +35526,7 @@
         <v>1</v>
       </c>
       <c r="R626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -35750,7 +35750,7 @@
         <v>2</v>
       </c>
       <c r="R630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -36310,7 +36310,7 @@
         <v>1</v>
       </c>
       <c r="R640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -36590,7 +36590,7 @@
         <v>2</v>
       </c>
       <c r="R645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -37598,7 +37598,7 @@
         <v>1</v>
       </c>
       <c r="R663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -38214,7 +38214,7 @@
         <v>2</v>
       </c>
       <c r="R674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -38606,7 +38606,7 @@
         <v>1</v>
       </c>
       <c r="R681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -39054,7 +39054,7 @@
         <v>2</v>
       </c>
       <c r="R689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39334,7 +39334,7 @@
         <v>1</v>
       </c>
       <c r="R694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -39782,7 +39782,7 @@
         <v>2</v>
       </c>
       <c r="R702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -39838,7 +39838,7 @@
         <v>1</v>
       </c>
       <c r="R703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -40790,7 +40790,7 @@
         <v>1</v>
       </c>
       <c r="R720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -41294,7 +41294,7 @@
         <v>2</v>
       </c>
       <c r="R729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -41742,7 +41742,7 @@
         <v>1</v>
       </c>
       <c r="R737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -41854,7 +41854,7 @@
         <v>2</v>
       </c>
       <c r="R739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -43366,7 +43366,7 @@
         <v>2</v>
       </c>
       <c r="R766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -44206,7 +44206,7 @@
         <v>2</v>
       </c>
       <c r="R781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -45382,7 +45382,7 @@
         <v>2</v>
       </c>
       <c r="R802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -45494,7 +45494,7 @@
         <v>1</v>
       </c>
       <c r="R804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -45886,7 +45886,7 @@
         <v>2</v>
       </c>
       <c r="R811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -46278,7 +46278,7 @@
         <v>2</v>
       </c>
       <c r="R818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -46782,7 +46782,7 @@
         <v>1</v>
       </c>
       <c r="R827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -47286,7 +47286,7 @@
         <v>2</v>
       </c>
       <c r="R836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837">
@@ -47678,7 +47678,7 @@
         <v>1</v>
       </c>
       <c r="R843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -48518,7 +48518,7 @@
         <v>2</v>
       </c>
       <c r="R858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859">
@@ -48966,7 +48966,7 @@
         <v>1</v>
       </c>
       <c r="R866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867">
@@ -49246,7 +49246,7 @@
         <v>2</v>
       </c>
       <c r="R871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872">
@@ -49638,7 +49638,7 @@
         <v>2</v>
       </c>
       <c r="R878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -50198,7 +50198,7 @@
         <v>1</v>
       </c>
       <c r="R888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -50366,7 +50366,7 @@
         <v>2</v>
       </c>
       <c r="R891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -50982,7 +50982,7 @@
         <v>1</v>
       </c>
       <c r="R902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -51262,7 +51262,7 @@
         <v>2</v>
       </c>
       <c r="R907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -52718,7 +52718,7 @@
         <v>1</v>
       </c>
       <c r="R933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934">
@@ -52942,7 +52942,7 @@
         <v>2</v>
       </c>
       <c r="R937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938">
@@ -53166,7 +53166,7 @@
         <v>1</v>
       </c>
       <c r="R941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -53782,7 +53782,7 @@
         <v>1</v>
       </c>
       <c r="R952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953">
@@ -56694,7 +56694,7 @@
         <v>2</v>
       </c>
       <c r="R1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005">
@@ -56862,7 +56862,7 @@
         <v>1</v>
       </c>
       <c r="R1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -57478,7 +57478,7 @@
         <v>2</v>
       </c>
       <c r="R1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -57814,7 +57814,7 @@
         <v>1</v>
       </c>
       <c r="R1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
@@ -58038,7 +58038,7 @@
         <v>2</v>
       </c>
       <c r="R1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -58318,7 +58318,7 @@
         <v>1</v>
       </c>
       <c r="R1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -59046,7 +59046,7 @@
         <v>1</v>
       </c>
       <c r="R1046" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047">
@@ -59774,7 +59774,7 @@
         <v>1</v>
       </c>
       <c r="R1059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060">
@@ -60166,7 +60166,7 @@
         <v>2</v>
       </c>
       <c r="R1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067">
@@ -61006,7 +61006,7 @@
         <v>1</v>
       </c>
       <c r="R1081" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082">
@@ -61174,7 +61174,7 @@
         <v>2</v>
       </c>
       <c r="R1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091">
@@ -62294,7 +62294,7 @@
         <v>1</v>
       </c>
       <c r="R1104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105">
@@ -63078,7 +63078,7 @@
         <v>2</v>
       </c>
       <c r="R1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119">
@@ -63190,7 +63190,7 @@
         <v>1</v>
       </c>
       <c r="R1120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121">
@@ -63470,7 +63470,7 @@
         <v>2</v>
       </c>
       <c r="R1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126">
@@ -63526,7 +63526,7 @@
         <v>1</v>
       </c>
       <c r="R1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
@@ -64310,7 +64310,7 @@
         <v>1</v>
       </c>
       <c r="R1140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141">
@@ -64867,7 +64867,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64919,7 +64921,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64971,7 +64975,9 @@
       <c r="Q1152" t="n">
         <v>1</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65023,7 +65029,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65075,7 +65083,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65127,7 +65137,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65179,7 +65191,9 @@
       <c r="Q1156" t="n">
         <v>2</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65231,7 +65245,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65283,7 +65299,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65335,7 +65353,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65387,7 +65407,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65439,7 +65461,9 @@
       <c r="Q1161" t="n">
         <v>1</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65491,7 +65515,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65543,7 +65569,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65595,7 +65623,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65647,7 +65677,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65699,7 +65731,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65751,7 +65785,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65803,7 +65839,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65855,7 +65893,9 @@
       <c r="Q1169" t="n">
         <v>2</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65907,7 +65947,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65959,7 +66001,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66011,7 +66055,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66063,7 +66109,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66115,7 +66163,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66167,7 +66217,9 @@
       <c r="Q1175" t="n">
         <v>1</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66219,7 +66271,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66271,7 +66325,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66323,7 +66379,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66375,7 +66433,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66427,7 +66487,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66479,7 +66541,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66531,7 +66595,9 @@
       <c r="Q1182" t="n">
         <v>2</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66583,7 +66649,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66635,7 +66703,217 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>490.0499877929688</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>533</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>462</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>520.9000244140625</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>6736960</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>521.75</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>533.5499877929688</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>493.8500061035156</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>524.8499755859375</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>2499169</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>524.8499755859375</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>577</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>512.0999755859375</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>2847974</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>584.8499755859375</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>588.4500122070312</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>554.8499755859375</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>2482629</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
